--- a/DMKH.XLSX
+++ b/DMKH.XLSX
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOAN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT APP SPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD84618-2AD8-4335-81B8-ACA0BB97B089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9291A38B-32B3-44C1-9137-F6FDFCD90BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="1515" windowWidth="21105" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="2325" windowWidth="21105" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dbo_DMKH" sheetId="1" r:id="rId1"/>
@@ -22756,8 +22756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A1190" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22766,7 +22766,8 @@
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
